--- a/data-general/chlamee-acclimated-plate-layout.xlsx
+++ b/data-general/chlamee-acclimated-plate-layout.xlsx
@@ -27,27 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="16">
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Cc1690</t>
-  </si>
-  <si>
-    <t>Anc 2</t>
-  </si>
-  <si>
-    <t>Anc3</t>
-  </si>
-  <si>
-    <t>Anc 5</t>
-  </si>
-  <si>
     <t>cc1629</t>
-  </si>
-  <si>
-    <t>Anc4</t>
   </si>
   <si>
     <t>C</t>
@@ -57,9 +42,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>anc 2</t>
   </si>
   <si>
     <t>F</t>
@@ -78,6 +60,21 @@
   </si>
   <si>
     <t>colum</t>
+  </si>
+  <si>
+    <t>anc5</t>
+  </si>
+  <si>
+    <t>anc2</t>
+  </si>
+  <si>
+    <t>cc1690</t>
+  </si>
+  <si>
+    <t>anc3</t>
+  </si>
+  <si>
+    <t>anc4</t>
   </si>
 </sst>
 </file>
@@ -410,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,16 +418,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -550,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -581,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -595,7 +592,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -609,7 +606,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -623,7 +620,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -637,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
@@ -651,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>7</v>
@@ -662,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -679,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>9</v>
@@ -693,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -704,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>11</v>
@@ -721,7 +718,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -735,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -749,7 +746,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -763,7 +760,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
@@ -777,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
@@ -791,7 +788,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>7</v>
@@ -805,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
@@ -819,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
         <v>9</v>
@@ -833,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
@@ -847,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>11</v>
@@ -861,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -875,7 +872,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -886,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -903,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
@@ -917,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
@@ -928,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
         <v>7</v>
@@ -945,7 +942,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -959,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
         <v>9</v>
@@ -973,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
         <v>10</v>
@@ -987,7 +984,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
         <v>11</v>
@@ -1001,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -1015,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -1029,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -1040,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -1057,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
         <v>6</v>
@@ -1071,7 +1068,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
         <v>7</v>
@@ -1085,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
@@ -1096,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
         <v>9</v>
@@ -1113,7 +1110,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1">
         <v>10</v>
@@ -1127,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
         <v>11</v>
@@ -1141,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -1155,7 +1152,7 @@
         <v>33</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -1222,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -1309,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
         <v>2</v>
@@ -1323,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -1337,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
@@ -1351,7 +1348,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
@@ -1365,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
         <v>6</v>
@@ -1379,7 +1376,7 @@
         <v>27</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
         <v>7</v>
@@ -1393,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>8</v>
@@ -1407,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
         <v>9</v>
@@ -1418,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
         <v>10</v>
@@ -1435,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1">
         <v>11</v>
@@ -1449,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
@@ -1463,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -1477,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>4</v>
@@ -1491,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -1505,7 +1502,7 @@
         <v>31</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
         <v>6</v>
@@ -1519,7 +1516,7 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
         <v>7</v>
@@ -1533,7 +1530,7 @@
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
         <v>8</v>
@@ -1547,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1">
         <v>9</v>
@@ -1561,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1">
         <v>10</v>
@@ -1575,7 +1572,7 @@
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D83" s="1">
         <v>11</v>
@@ -1589,7 +1586,7 @@
         <v>26</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D84" s="1">
         <v>2</v>
@@ -1603,7 +1600,7 @@
         <v>28</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D85" s="1">
         <v>3</v>
@@ -1617,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D86" s="1">
         <v>4</v>
@@ -1628,10 +1625,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D87" s="1">
         <v>5</v>
@@ -1645,7 +1642,7 @@
         <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D88" s="1">
         <v>6</v>
@@ -1659,7 +1656,7 @@
         <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D89" s="1">
         <v>7</v>
@@ -1673,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D90" s="1">
         <v>8</v>
@@ -1687,7 +1684,7 @@
         <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D91" s="1">
         <v>9</v>
@@ -1701,7 +1698,7 @@
         <v>22</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D92" s="1">
         <v>10</v>
@@ -1715,7 +1712,7 @@
         <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1">
         <v>11</v>
@@ -1729,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -1743,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
@@ -1757,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1">
         <v>4</v>
@@ -1771,7 +1768,7 @@
         <v>17</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D97" s="1">
         <v>5</v>
@@ -1785,7 +1782,7 @@
         <v>22</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1">
         <v>6</v>
@@ -1799,7 +1796,7 @@
         <v>35</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D99" s="1">
         <v>7</v>
@@ -1813,7 +1810,7 @@
         <v>31</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D100" s="1">
         <v>8</v>
@@ -1827,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1">
         <v>9</v>
@@ -1838,10 +1835,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D102" s="1">
         <v>10</v>
@@ -1855,7 +1852,7 @@
         <v>26</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1">
         <v>11</v>
@@ -1869,7 +1866,7 @@
         <v>27</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -1883,7 +1880,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1">
         <v>3</v>
@@ -1922,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>0</v>
@@ -1964,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>0</v>
@@ -2020,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>0</v>
@@ -2037,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -2051,7 +2048,7 @@
         <v>30</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D117" s="1">
         <v>3</v>
@@ -2065,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D118" s="1">
         <v>4</v>
@@ -2076,10 +2073,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D119" s="1">
         <v>5</v>
@@ -2090,10 +2087,10 @@
         <v>3</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D120" s="1">
         <v>6</v>
@@ -2107,7 +2104,7 @@
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D121" s="1">
         <v>7</v>
@@ -2121,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1">
         <v>8</v>
@@ -2135,7 +2132,7 @@
         <v>30</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D123" s="1">
         <v>9</v>
@@ -2149,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D124" s="1">
         <v>10</v>
@@ -2163,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D125" s="1">
         <v>11</v>
@@ -2177,7 +2174,7 @@
         <v>29</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -2191,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D127" s="1">
         <v>3</v>
@@ -2202,10 +2199,10 @@
         <v>3</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D128" s="1">
         <v>4</v>
@@ -2219,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D129" s="1">
         <v>5</v>
@@ -2233,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D130" s="1">
         <v>6</v>
@@ -2244,10 +2241,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D131" s="1">
         <v>7</v>
@@ -2261,7 +2258,7 @@
         <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D132" s="1">
         <v>8</v>
@@ -2275,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D133" s="1">
         <v>9</v>
@@ -2289,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D134" s="1">
         <v>10</v>
@@ -2303,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D135" s="1">
         <v>11</v>
@@ -2314,10 +2311,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -2331,7 +2328,7 @@
         <v>30</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D137" s="1">
         <v>3</v>
@@ -2345,7 +2342,7 @@
         <v>16</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D138" s="1">
         <v>4</v>
@@ -2356,10 +2353,10 @@
         <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D139" s="1">
         <v>5</v>
@@ -2373,7 +2370,7 @@
         <v>29</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D140" s="1">
         <v>6</v>
@@ -2387,7 +2384,7 @@
         <v>15</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D141" s="1">
         <v>7</v>
@@ -2401,7 +2398,7 @@
         <v>30</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D142" s="1">
         <v>8</v>
@@ -2415,7 +2412,7 @@
         <v>20</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -2429,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D144" s="1">
         <v>10</v>
@@ -2443,7 +2440,7 @@
         <v>16</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D145" s="1">
         <v>11</v>
@@ -2457,7 +2454,7 @@
         <v>15</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D146" s="1">
         <v>2</v>
@@ -2471,7 +2468,7 @@
         <v>7</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D147" s="1">
         <v>3</v>
@@ -2485,7 +2482,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D148" s="1">
         <v>4</v>
@@ -2496,10 +2493,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D149" s="1">
         <v>5</v>
@@ -2510,10 +2507,10 @@
         <v>3</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D150" s="1">
         <v>6</v>
@@ -2524,10 +2521,10 @@
         <v>3</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D151" s="1">
         <v>7</v>
@@ -2541,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D152" s="1">
         <v>8</v>
@@ -2555,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D153" s="1">
         <v>9</v>
